--- a/data/trans_camb/P1408-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.569744154655347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.8729643438246628</v>
+        <v>-0.8729643438246627</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.210947366811537</v>
@@ -655,7 +655,7 @@
         <v>-0.9270565487187039</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.3949357993750914</v>
+        <v>-0.3949357993750915</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-1.457372129080493</v>
@@ -664,7 +664,7 @@
         <v>-0.759146911284189</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.6904163373586094</v>
+        <v>-0.6904163373586095</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.4538461065974</v>
+        <v>-3.456514115084721</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.600203600724853</v>
+        <v>-2.641661290223945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.858160883665293</v>
+        <v>-2.938951109190198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.100142857785735</v>
+        <v>-2.980290763289334</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.755074177283888</v>
+        <v>-2.519716283211232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.240903791589481</v>
+        <v>-2.18856749224063</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.868712176815069</v>
+        <v>-2.711620948976203</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.223573524606036</v>
+        <v>-2.199601271419025</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.957360298335778</v>
+        <v>-1.947392877836126</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2213772303601953</v>
+        <v>-0.2468985285186368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.349011202234609</v>
+        <v>1.250264130000168</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5271471648688802</v>
+        <v>0.6357853617917842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0</v>
+        <v>-0.01448780969922963</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3800345092913145</v>
+        <v>0.3712626964370181</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9032274195111314</v>
+        <v>0.8397092748070477</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.5173536823475163</v>
+        <v>-0.5600314880304533</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4180747764308794</v>
+        <v>0.4132667338707003</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3824964196158669</v>
+        <v>0.3879540499932861</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.276205615858705</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4232033839024458</v>
+        <v>-0.4232033839024457</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.7987335821977019</v>
@@ -760,7 +760,7 @@
         <v>-0.6114809101964629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2604972721511138</v>
+        <v>-0.260497272151114</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.7886468852553482</v>
@@ -769,7 +769,7 @@
         <v>-0.4108071199448791</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3736140434707049</v>
+        <v>-0.373614043470705</v>
       </c>
     </row>
     <row r="8">
@@ -783,26 +783,24 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8359333678840886</v>
+        <v>-0.8139038525797797</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8132385467368857</v>
+        <v>-0.8237491827768019</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
-      <c r="G8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.805393525382768</v>
+        <v>-0.7761691271489873</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.9512283360139053</v>
+        <v>-0.9436583174837923</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8007208978119155</v>
+        <v>-0.8044894172646805</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.692414389528851</v>
+        <v>-0.685628666588293</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +811,27 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8813468515997972</v>
+        <v>0.1287216467067604</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.477473599098511</v>
+        <v>1.556535259170381</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5700021987048545</v>
+        <v>0.742860257873439</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
-      <c r="G9" s="6" t="n">
-        <v>3.214680058887508</v>
-      </c>
+      <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.824305267161314</v>
+        <v>1.673520203010946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1163499710058734</v>
+        <v>-0.2636886437367327</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5060737989973573</v>
+        <v>0.4288390556065982</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4592737124313355</v>
+        <v>0.3999819297415325</v>
       </c>
     </row>
     <row r="10">
@@ -865,7 +861,7 @@
         <v>-0.9083127771778018</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.2538357471289681</v>
+        <v>-0.2538357471289676</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.117079033576663</v>
@@ -885,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.115512562536515</v>
+        <v>-5.590971074587436</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.165703365228863</v>
+        <v>-6.290659293592313</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.455264298679109</v>
+        <v>-5.48488174814764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.154290893018427</v>
+        <v>-3.396411870587902</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.623721351562721</v>
+        <v>-2.917899607846491</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.129515997366969</v>
+        <v>-2.221204125348579</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.727520133664887</v>
+        <v>-3.57499012460504</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.07247688069501</v>
+        <v>-3.925542543288083</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.066080152405867</v>
+        <v>-3.154184109314697</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2462597375006489</v>
+        <v>-0.1917766194030334</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.132843225163517</v>
+        <v>-2.194293898314711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.177187763909149</v>
+        <v>-1.144283029287222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2085579066762597</v>
+        <v>-0.2269413061871502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6131445549790613</v>
+        <v>0.574259725838754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.360878899027461</v>
+        <v>1.209002037633688</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.6477386583355181</v>
+        <v>-0.6367862071033279</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.255008595074923</v>
+        <v>-1.172274566003473</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.2982761041269562</v>
+        <v>-0.3551604100182327</v>
       </c>
     </row>
     <row r="13">
@@ -970,7 +966,7 @@
         <v>-0.5194408188540268</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1451621640210449</v>
+        <v>-0.1451621640210446</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.7130213048346056</v>
@@ -990,31 +986,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9515910446332364</v>
+        <v>-0.9432715999069752</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.9049161869875799</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8867740573755172</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7137890231863524</v>
+        <v>-0.7118384475750658</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.9480996325717964</v>
+        <v>-0.9249136697338712</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.9542512747158932</v>
+        <v>-0.9511632075463561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7572893816472271</v>
+        <v>-0.7559807248027142</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1019,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05398570737201042</v>
+        <v>0.1393178383386514</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.623288307081403</v>
+        <v>-0.5432600426116935</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3578887747102226</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>0.3032272568202902</v>
-      </c>
+        <v>-0.2438359410591917</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>1.240345632518457</v>
+        <v>1.344016501782074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.226743868540828</v>
+        <v>1.642844343994748</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.1028086743396039</v>
+        <v>-0.1382711289484357</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4813374601758412</v>
+        <v>-0.4612703077876929</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1362504708751911</v>
+        <v>-0.1399579366760118</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1062,7 @@
         <v>-2.476585830734506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.488927141669116</v>
+        <v>-1.488927141669115</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.632118957084591</v>
@@ -1079,7 +1071,7 @@
         <v>-3.8244735809132</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4147906128945167</v>
+        <v>0.414790612894516</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.172516560514971</v>
@@ -1099,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.443987729583644</v>
+        <v>-4.155631399690962</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.90918312998843</v>
+        <v>-4.648716700681397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.987278400068418</v>
+        <v>-3.909312821046254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.71575284149563</v>
+        <v>-6.914680781870702</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.922806555235677</v>
+        <v>-7.681434284154161</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.135984232211081</v>
+        <v>-3.632106059325915</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.078332475715698</v>
+        <v>-4.028377313412005</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.6544643013055</v>
+        <v>-4.656033898131374</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.046635924354621</v>
+        <v>-3.115389911307935</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.162120113382946</v>
+        <v>0.3581083117502828</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.376425248139298</v>
+        <v>-0.2274000573478235</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.764117982890123</v>
+        <v>0.9203986342935698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3774049247923674</v>
+        <v>0.03473032304334408</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.357797724560419</v>
+        <v>-1.28781344203851</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.821470987896094</v>
+        <v>3.809758908390487</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.3710939165327354</v>
+        <v>-0.3755594307226576</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.9691549865539408</v>
+        <v>-0.992180709461602</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8728550371076804</v>
+        <v>0.9607921813229923</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1167,7 @@
         <v>-0.5346186153306608</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3214135189376017</v>
+        <v>-0.3214135189376016</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.6882303933855646</v>
@@ -1184,7 +1176,7 @@
         <v>-1</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1084569167805504</v>
+        <v>0.1084569167805502</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.4891348485313195</v>
@@ -1204,29 +1196,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.721796946184752</v>
+        <v>-0.711332540976751</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8027211411269712</v>
+        <v>-0.7785759681105708</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6625918890768462</v>
+        <v>-0.6290385260609443</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.6301536039404804</v>
+        <v>-0.6032724955186984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.716973796274979</v>
+        <v>-0.7066230246485051</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8251172616256028</v>
+        <v>-0.8235634671814465</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.5341447286402399</v>
+        <v>-0.5512644672374751</v>
       </c>
     </row>
     <row r="21">
@@ -1237,29 +1229,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08437836213807341</v>
+        <v>0.1282457245295235</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.04268405499711592</v>
+        <v>-0.02202227605037837</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2434108972348005</v>
+        <v>0.3677996678622373</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6872979881755423</v>
+        <v>0.3232007847855738</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>2.302714497484186</v>
+        <v>2.196822879853427</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.03939869302852392</v>
+        <v>-0.05717354793697178</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2551312681645339</v>
+        <v>-0.2528627328085178</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2957342628347019</v>
+        <v>0.2972364153820231</v>
       </c>
     </row>
     <row r="22">
@@ -1298,7 +1290,7 @@
         <v>-2.026077179742779</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.518606559660263</v>
+        <v>-1.518606559660262</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.802648629415523</v>
+        <v>-2.936366329356186</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.438883130379259</v>
+        <v>-3.492378884785507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.991334410220559</v>
+        <v>-2.951488085521812</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.33225770418062</v>
+        <v>-3.943860859733566</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.528323350577089</v>
+        <v>-3.701000768570894</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.172228027203593</v>
+        <v>-3.045145736026139</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.05527096539822</v>
+        <v>-3.057415272821935</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.08801152790851</v>
+        <v>-3.052960610675318</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.571201723674419</v>
+        <v>-2.605759102688677</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2821710139112114</v>
+        <v>0.1792813654323256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5125521284869134</v>
+        <v>-0.5840792115192852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.008378647222826588</v>
+        <v>0.08570064685156614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.316590367549028</v>
+        <v>-1.311480876051464</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2851851715244913</v>
+        <v>-0.4378259821324217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.09503468722717207</v>
+        <v>0.09017103765760665</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.7235135557927574</v>
+        <v>-0.7149050387259199</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.000004853780091</v>
+        <v>-0.909842740658692</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.5091549631414712</v>
+        <v>-0.4794846402639776</v>
       </c>
     </row>
     <row r="25">
@@ -1403,7 +1395,7 @@
         <v>-0.5002120559601628</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3749241721871069</v>
+        <v>-0.3749241721871068</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5333874559923112</v>
+        <v>-0.5411955768907454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6548609569348072</v>
+        <v>-0.6499039583038477</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5444407722425522</v>
+        <v>-0.5464976107726451</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.958916245851516</v>
+        <v>-0.9602904537946131</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8443879391482234</v>
+        <v>-0.8482026725189727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.71863725905392</v>
+        <v>-0.7134010043484452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6504959745000886</v>
+        <v>-0.6337571683923366</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6611559748397303</v>
+        <v>-0.6599927653892694</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5385931371007749</v>
+        <v>-0.5602252573008142</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08261817461033306</v>
+        <v>0.04965593950214468</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1110561124808136</v>
+        <v>-0.1438616200324679</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02145682136685827</v>
+        <v>0.0354694045231905</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.479507353330234</v>
+        <v>-0.5054749550872886</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.09283047709719575</v>
+        <v>-0.1063775336075787</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01311861050306296</v>
+        <v>0.05509960500630028</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.211346773390047</v>
+        <v>-0.1886205513309071</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2792957018778894</v>
+        <v>-0.2487129541839863</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1406109097817446</v>
+        <v>-0.1386120145538497</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1486,7 @@
         <v>-4.750455931110249</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.020981894705895</v>
+        <v>-3.020981894705896</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.1127461815177574</v>
@@ -1523,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.067892091513292</v>
+        <v>-8.186257420437869</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.115824088134797</v>
+        <v>-7.973786089849748</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.30876708531249</v>
+        <v>-6.363288332546451</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.875284370256066</v>
+        <v>-1.890420517552481</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.446649717299065</v>
+        <v>-2.457980272279559</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1554544678317424</v>
+        <v>-0.4349138908090346</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.501870783755909</v>
+        <v>-3.559537659808968</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.849011761910736</v>
+        <v>-3.692823420852147</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.716429949627442</v>
+        <v>-1.794550924521306</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.258118287635941</v>
+        <v>-2.09338166096695</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.039871953179864</v>
+        <v>-2.106064420105773</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.2120646802388322</v>
+        <v>-0.3213489429647112</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.511360708861231</v>
+        <v>1.593184427279493</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7888571207546965</v>
+        <v>0.8875536318224488</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.420429287013963</v>
+        <v>3.416594622380877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3821278749598944</v>
+        <v>-0.3688809626720568</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7927863552794867</v>
+        <v>-0.8021820452245902</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.392448024884935</v>
+        <v>1.44486209186123</v>
       </c>
     </row>
     <row r="31">
@@ -1599,7 +1591,7 @@
         <v>-0.6607559466251235</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4201979305820501</v>
+        <v>-0.4201979305820503</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04449514924751952</v>
@@ -1628,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8559948072904128</v>
+        <v>-0.8535486771187456</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8290430737212998</v>
+        <v>-0.8212501909140568</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6652465654319567</v>
+        <v>-0.668758385833059</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5392616298566155</v>
+        <v>-0.5426801312036396</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6826282091172874</v>
+        <v>-0.696993491908507</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.08729296348321434</v>
+        <v>-0.150669874731746</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.6643445817439877</v>
+        <v>-0.681952709997333</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7024547988059081</v>
+        <v>-0.7033536589010165</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3346261703611793</v>
+        <v>-0.3392071818231339</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3865995712061064</v>
+        <v>-0.3598613410831303</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3061261842749888</v>
+        <v>-0.3622593201733881</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.009719635319870414</v>
+        <v>-0.03610891576243567</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8752314780624884</v>
+        <v>1.086277792144779</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5530951405129143</v>
+        <v>0.5719880282268587</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.26717551337268</v>
+        <v>2.162242394460317</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.09567042103895679</v>
+        <v>-0.1208491885328521</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2142758957334316</v>
+        <v>-0.2389343345361028</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4213164871611529</v>
+        <v>0.4579866263472744</v>
       </c>
     </row>
     <row r="34">
@@ -1737,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.845714511197692</v>
+        <v>-3.013877998286592</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.834128545083799</v>
+        <v>-1.842263010718897</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.443840361817208</v>
+        <v>-2.520755618080702</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.901454740968072</v>
+        <v>-2.953649503718597</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.906970056293116</v>
+        <v>-2.964753595483774</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.83813705830463</v>
+        <v>-1.972191175950962</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.553034082198771</v>
+        <v>-2.684361705906133</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.440169542589002</v>
+        <v>-2.532748388741276</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.712591174070335</v>
+        <v>-1.934993485540291</v>
       </c>
     </row>
     <row r="36">
@@ -1772,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.2988607375343287</v>
+        <v>-0.35725877453731</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.53436490454276</v>
+        <v>1.406973305607801</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.3579221859350263</v>
+        <v>0.3015496333105053</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.5451904676055751</v>
+        <v>-0.4955581005338138</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.4211600413220532</v>
+        <v>-0.4262142945201873</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>0.6712437677194782</v>
+        <v>0.5260127288455598</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-0.5762868822172513</v>
+        <v>-0.6617280128046455</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.4249317295631604</v>
+        <v>-0.4082070919185701</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.2505930398713493</v>
+        <v>0.2428710710879773</v>
       </c>
     </row>
     <row r="37">
@@ -1845,22 +1837,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.7766249480715651</v>
+        <v>-0.7877980108553733</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.8058869018291738</v>
+        <v>-0.7683177043140512</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.491157530196902</v>
+        <v>-0.5289843712350337</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.7935025216792251</v>
+        <v>-0.7969341265821166</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7576979124842391</v>
+        <v>-0.7501949812972489</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5286066973100483</v>
+        <v>-0.5367297906630144</v>
       </c>
     </row>
     <row r="39">
@@ -1874,22 +1866,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>-0.1924852790848839</v>
+        <v>-0.1703661840039245</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1742696204021942</v>
+        <v>-0.1030116191552706</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3060075830691181</v>
+        <v>0.2672617420915507</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2678621524487226</v>
+        <v>-0.2618280091536473</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1775082127811344</v>
+        <v>-0.1337208371563135</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1451793747008628</v>
+        <v>0.1388066710789121</v>
       </c>
     </row>
     <row r="40">
@@ -1919,7 +1911,7 @@
         <v>-1.483846468253124</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.2697497124709868</v>
+        <v>-0.2697497124709864</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.756149074283138</v>
@@ -1939,31 +1931,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.85093162256489</v>
+        <v>-2.875884640602126</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.036127956001661</v>
+        <v>-3.126261371035413</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.411581282063714</v>
+        <v>-2.523061643020012</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.122921369944115</v>
+        <v>-2.158551292194357</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.185952804945644</v>
+        <v>-2.119440546761295</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.029091811071714</v>
+        <v>-0.9733871380763365</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.325271097590112</v>
+        <v>-2.278832502336235</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.394253061918679</v>
+        <v>-2.369749356133657</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.489107484877993</v>
+        <v>-1.454320449324618</v>
       </c>
     </row>
     <row r="42">
@@ -1974,31 +1966,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.214994318216907</v>
+        <v>-1.165477109266754</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.39169433622033</v>
+        <v>-1.396302346674787</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.8173577652242194</v>
+        <v>-0.8185082175546895</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.8115369397665535</v>
+        <v>-0.8075629790478662</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.7720079210591977</v>
+        <v>-0.809736999115796</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.3778350182284995</v>
+        <v>0.460919140014524</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-1.259588434799956</v>
+        <v>-1.196655264601317</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.344860928640004</v>
+        <v>-1.283051676987704</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.3875128310604852</v>
+        <v>-0.3687673688601031</v>
       </c>
     </row>
     <row r="43">
@@ -2024,7 +2016,7 @@
         <v>-0.5476210813280589</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.09955250249387362</v>
+        <v>-0.0995525024938735</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.5130844056812244</v>
@@ -2044,31 +2036,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6106672713949927</v>
+        <v>-0.6075807212587646</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6520272640394346</v>
+        <v>-0.6586045990954452</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.523244572630565</v>
+        <v>-0.5283466619432763</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6919619693617948</v>
+        <v>-0.7026928667973286</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6976158616414431</v>
+        <v>-0.6732682755655434</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3181349566066053</v>
+        <v>-0.3086159998344625</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.6090300602295494</v>
+        <v>-0.6071327790874217</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.638809416334023</v>
+        <v>-0.6272034601253151</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.3980381155504213</v>
+        <v>-0.3928978010184778</v>
       </c>
     </row>
     <row r="45">
@@ -2079,31 +2071,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.3164527443794423</v>
+        <v>-0.3068868460372622</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.38148259604004</v>
+        <v>-0.3720372367267024</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2206375127183901</v>
+        <v>-0.2194593847406496</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.3458886390641899</v>
+        <v>-0.3584519554441984</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.333515825798017</v>
+        <v>-0.3378095933619133</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1652817676042659</v>
+        <v>0.2076537376312098</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.3889967601544149</v>
+        <v>-0.3849819276807325</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.4211056138415173</v>
+        <v>-0.4105555498219631</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1203676954039864</v>
+        <v>-0.1195043578199003</v>
       </c>
     </row>
     <row r="46">
